--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_adv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90023E92-0FB8-4A4C-99B0-D37D34D9DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFEED9-3E82-49B7-9462-3C51463BFF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1005" windowWidth="21345" windowHeight="20595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="1245" windowWidth="29205" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Symbol</t>
   </si>
@@ -53,9 +53,6 @@
     <t>VNQ</t>
   </si>
   <si>
-    <t>MPW</t>
-  </si>
-  <si>
     <t>SOXQ</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Reit, Rent, Housing,Mortgage</t>
   </si>
   <si>
-    <t>Reit, Rent, Housing,Interest, Health</t>
-  </si>
-  <si>
     <t>Total Market, Dividend Stock, High Dividend</t>
   </si>
   <si>
@@ -92,16 +86,10 @@
     <t>FHLC</t>
   </si>
   <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>COMMODOTIES, GOLD</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>BOND</t>
+    <t>VXUS</t>
+  </si>
+  <si>
+    <t>Total Stock,International</t>
   </si>
 </sst>
 </file>
@@ -655,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -695,7 +683,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -801,7 +789,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,12 +1010,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1035,34 +1023,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFEED9-3E82-49B7-9462-3C51463BFF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCC55B-1528-425A-83B3-6D7F47455920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="1245" windowWidth="29205" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="960" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Symbol</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>Total Stock,International</t>
+  </si>
+  <si>
+    <t>JEPI</t>
+  </si>
+  <si>
+    <t>PEY</t>
+  </si>
+  <si>
+    <t>SPYD</t>
+  </si>
+  <si>
+    <t>FAS</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>BAC</t>
   </si>
 </sst>
 </file>
@@ -939,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,6 +1055,36 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Project\Python\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCC55B-1528-425A-83B3-6D7F47455920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6090FE-9B80-4062-B2A8-4F558E76FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="960" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13980" yWindow="375" windowWidth="13335" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Symbol</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>FAS</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>BAC</t>
   </si>
 </sst>
 </file>
@@ -957,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,16 +1069,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Project\Python\stk_advisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6090FE-9B80-4062-B2A8-4F558E76FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1772511-2EF0-4545-AB28-5D0395A0CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13980" yWindow="375" windowWidth="13335" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="960" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Symbol</t>
   </si>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>Total Stock,International</t>
-  </si>
-  <si>
-    <t>JEPI</t>
-  </si>
-  <si>
-    <t>PEY</t>
-  </si>
-  <si>
-    <t>SPYD</t>
-  </si>
-  <si>
-    <t>FAS</t>
   </si>
 </sst>
 </file>
@@ -951,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,26 +1037,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1772511-2EF0-4545-AB28-5D0395A0CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB50EC0-29C9-4C71-A896-E8EC00F1EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="960" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41025" yWindow="1605" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Symbol</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Total Stock,International</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -939,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,10 +970,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -975,18 +981,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,10 +1005,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,29 +1021,40 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB50EC0-29C9-4C71-A896-E8EC00F1EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A500F98-6235-44F2-8DF6-68590ED0CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41025" yWindow="1605" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Semiconductors, Chips,Nasdaq,ETF</t>
   </si>
   <si>
-    <t>FHLC</t>
-  </si>
-  <si>
     <t>VXUS</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Energy</t>
+  </si>
+  <si>
+    <t>FTEC</t>
   </si>
 </sst>
 </file>
@@ -948,7 +948,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -1021,18 +1021,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A500F98-6235-44F2-8DF6-68590ED0CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA9ACCD-3B43-4DCF-A703-58170FE4BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1605" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Symbol</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>FTEC</t>
+  </si>
+  <si>
+    <t>JEPI</t>
+  </si>
+  <si>
+    <t>FAS</t>
   </si>
 </sst>
 </file>
@@ -945,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1057,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A2:A11"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA9ACCD-3B43-4DCF-A703-58170FE4BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A06CD3-9BCE-4D38-99E9-CF2CF3664E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="1605" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Symbol</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>FAS</t>
+  </si>
+  <si>
+    <t>SQQQ</t>
   </si>
 </sst>
 </file>
@@ -951,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,6 +1070,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A2:A11"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A06CD3-9BCE-4D38-99E9-CF2CF3664E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AA6E48-DEEB-4310-8FD3-D632C18EE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1605" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43770" yWindow="1470" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>JEPI</t>
   </si>
   <si>
-    <t>FAS</t>
-  </si>
-  <si>
-    <t>SQQQ</t>
+    <t>Income, Dividend,ETF</t>
+  </si>
+  <si>
+    <t>BND</t>
   </si>
 </sst>
 </file>
@@ -954,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,14 +1064,12 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AA6E48-DEEB-4310-8FD3-D632C18EE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E03837-3F1A-4921-8129-EB597A08AA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43770" yWindow="1470" windowWidth="25935" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="4965" windowWidth="29175" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Symbol</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>BND</t>
+  </si>
+  <si>
+    <t>FAS</t>
   </si>
 </sst>
 </file>
@@ -954,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1076,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A2:A11"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E03837-3F1A-4921-8129-EB597A08AA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86434726-27AB-4A36-9D84-94CE7E78B1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="4965" windowWidth="29175" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Symbol</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>FAS</t>
+  </si>
+  <si>
+    <t>BALI</t>
   </si>
 </sst>
 </file>
@@ -957,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1084,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A2:A11"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86434726-27AB-4A36-9D84-94CE7E78B1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B57B91-0AF3-4206-A6AF-0E7788ADBC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="4965" windowWidth="29175" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1395" windowWidth="29235" windowHeight="19335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Symbol</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>BALI</t>
+  </si>
+  <si>
+    <t>HOLDING</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>POTENTIAL</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -963,13 +975,14 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,7 +992,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
@@ -990,7 +1005,9 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -1001,6 +1018,9 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1009,89 +1029,125 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
-    <sortCondition ref="A2:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="C2:C15"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B57B91-0AF3-4206-A6AF-0E7788ADBC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D009198-8AA7-47FB-9090-9F6095839A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1395" windowWidth="29235" windowHeight="19335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="0" windowWidth="23205" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Income, Dividend,ETF</t>
   </si>
   <si>
-    <t>BND</t>
-  </si>
-  <si>
     <t>FAS</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>QQQ</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1006,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1019,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,31 +1096,31 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D009198-8AA7-47FB-9090-9F6095839A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABB338-98E9-42E1-9D0C-18773E6853D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="23205" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Symbol</t>
   </si>
@@ -113,9 +113,6 @@
     <t>HOLDING</t>
   </si>
   <si>
-    <t>SOLD</t>
-  </si>
-  <si>
     <t>POTENTIAL</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>QQQ</t>
+  </si>
+  <si>
+    <t>PURCHASE  DATE</t>
+  </si>
+  <si>
+    <t>PURCHASE PRICE</t>
+  </si>
+  <si>
+    <t>PURCHASE QTY</t>
   </si>
 </sst>
 </file>
@@ -972,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,9 +989,12 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,12 +1002,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1027,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1099,31 +1115,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABB338-98E9-42E1-9D0C-18773E6853D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79C4845-2FE0-48E9-86FE-BB9600045665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Symbol</t>
   </si>
@@ -122,19 +122,44 @@
     <t>QQQ</t>
   </si>
   <si>
-    <t>PURCHASE  DATE</t>
-  </si>
-  <si>
-    <t>PURCHASE PRICE</t>
-  </si>
-  <si>
-    <t>PURCHASE QTY</t>
+    <t>PURCHASE _DATE</t>
+  </si>
+  <si>
+    <t>PURCHASE_PRICE</t>
+  </si>
+  <si>
+    <t>PURCHASE_QTY</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -617,14 +642,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -652,6 +686,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -978,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,12 +1024,12 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1024,10 +1059,18 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
+        <v>106.71</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,8 +1080,18 @@
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <v>53.56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1101,18 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
+        <v>79.73</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1059,8 +1122,18 @@
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>86.67</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,8 +1143,18 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>256.83999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1081,8 +1164,18 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1092,8 +1185,18 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41.65</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1103,8 +1206,18 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>206.81</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1112,34 +1225,50 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1149,8 +1278,12 @@
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,6 +1293,18 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79C4845-2FE0-48E9-86FE-BB9600045665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107CFA0-2912-473F-8171-5A402500B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>FOF</t>
+  </si>
+  <si>
+    <t>FREL</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,12 +1304,24 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107CFA0-2912-473F-8171-5A402500B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2346A-6422-4381-8C91-E65F53B32055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Symbol</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>FOF</t>
   </si>
   <si>
     <t>FREL</t>
@@ -1019,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,17 +1309,8 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2346A-6422-4381-8C91-E65F53B32055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4918B3-A4BB-410A-831B-B66946E164A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Symbol</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>FREL</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1025,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1315,16 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4918B3-A4BB-410A-831B-B66946E164A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E4576-9E81-465C-A8FB-6E22D36DA53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -155,10 +155,7 @@
     <t>FREL</t>
   </si>
   <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>BANK OF AMERICA</t>
+    <t>SPY</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1022,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,17 +1312,13 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E4576-9E81-465C-A8FB-6E22D36DA53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878332DD-C9A5-4BD1-8857-A055860E45D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Symbol</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>SPY</t>
+  </si>
+  <si>
+    <t>NAIL</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1264,7 +1267,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -1276,10 +1282,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -1287,42 +1293,43 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="C2:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="C2:C14"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878332DD-C9A5-4BD1-8857-A055860E45D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C22CADA-E405-4D00-95E1-BC3B132C4172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,10 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1160,7 @@
         <v>256.83999999999997</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C22CADA-E405-4D00-95E1-BC3B132C4172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85854D9F-5C56-48E8-AB46-F38E9EAE795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1740" windowWidth="26415" windowHeight="19755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Symbol</t>
   </si>
@@ -119,9 +119,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>QQQ</t>
-  </si>
-  <si>
     <t>PURCHASE _DATE</t>
   </si>
   <si>
@@ -149,16 +146,10 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>FREL</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
     <t>NAIL</t>
+  </si>
+  <si>
+    <t>IEDI</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,13 +1041,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>106.71</v>
@@ -1091,7 +1082,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>53.56</v>
@@ -1112,7 +1103,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>79.73</v>
@@ -1133,7 +1124,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
         <v>86.67</v>
@@ -1154,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>256.83999999999997</v>
@@ -1175,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>60</v>
@@ -1196,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>41.65</v>
@@ -1214,17 +1205,11 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2">
-        <v>206.81</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,7 +1229,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -1256,7 +1241,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1268,10 +1256,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -1279,58 +1267,35 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
-    <sortCondition ref="C2:C14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+    <sortCondition ref="C2:C13"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85854D9F-5C56-48E8-AB46-F38E9EAE795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E6129-3D76-4437-952B-F17EDA9D5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1740" windowWidth="26415" windowHeight="19755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Symbol</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>NAIL</t>
   </si>
   <si>
     <t>IEDI</t>
@@ -1014,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -1282,14 +1279,6 @@
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E6129-3D76-4437-952B-F17EDA9D5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716CF248-E054-471C-938B-D5EFC0808DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Symbol</t>
   </si>
@@ -107,9 +107,6 @@
     <t>FAS</t>
   </si>
   <si>
-    <t>BALI</t>
-  </si>
-  <si>
     <t>HOLDING</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>IEDI</t>
   </si>
 </sst>
 </file>
@@ -641,7 +635,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,7 +643,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1017,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>106.71</v>
@@ -1076,10 +1069,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>53.56</v>
@@ -1097,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>79.73</v>
@@ -1118,10 +1111,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>86.67</v>
@@ -1139,10 +1132,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>256.83999999999997</v>
@@ -1160,10 +1153,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="2">
         <v>60</v>
@@ -1181,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>41.65</v>
@@ -1202,9 +1195,9 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1217,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1226,10 +1219,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
@@ -1238,53 +1234,29 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
-    <sortCondition ref="C2:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition ref="C2:C12"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716CF248-E054-471C-938B-D5EFC0808DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A227B-A827-4042-B7C8-44ADB99E3DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1200" windowWidth="30540" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Symbol</t>
   </si>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,40 +1126,40 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>256.83999999999997</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2">
-        <v>60</v>
+        <v>41.65</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1168,23 +1168,17 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2">
-        <v>41.65</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,8 +1249,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
-    <sortCondition ref="C2:C12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition ref="C2:C13"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A227B-A827-4042-B7C8-44ADB99E3DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B762F37-71B9-4844-88C6-73EB3FD53B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1200" windowWidth="30540" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="0" windowWidth="38790" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Symbol</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>MAGS</t>
+  </si>
+  <si>
+    <t>SMH</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J19" sqref="J19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,6 +1254,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
     <sortCondition ref="C2:C13"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B762F37-71B9-4844-88C6-73EB3FD53B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE391FB-83DB-41C0-A297-0AE08E4257E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="0" windowWidth="38790" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Symbol</t>
   </si>
@@ -141,12 +141,6 @@
   </si>
   <si>
     <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>MAGS</t>
-  </si>
-  <si>
-    <t>SMH</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1007,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,20 +1249,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Project\Python\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE391FB-83DB-41C0-A297-0AE08E4257E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676E716-A1BC-4CCB-BC41-E13533F5907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="0" windowWidth="38790" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Symbol</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>ITB</t>
+  </si>
+  <si>
+    <t>US Home Construction</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>US Defense</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1019,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,10 +1261,26 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Project\Python\stk_advisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676E716-A1BC-4CCB-BC41-E13533F5907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3E085-98FE-44F1-A690-58C0E6F0F36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Symbol</t>
   </si>
@@ -44,9 +44,6 @@
     <t>XLF</t>
   </si>
   <si>
-    <t>Finance, Bank, Loans, Debt</t>
-  </si>
-  <si>
     <t>XLK</t>
   </si>
   <si>
@@ -62,33 +59,12 @@
     <t>VTI</t>
   </si>
   <si>
-    <t>Technology, Tech</t>
-  </si>
-  <si>
-    <t>Reit, Rent, Housing,Mortgage</t>
-  </si>
-  <si>
-    <t>Total Market, Dividend Stock, High Dividend</t>
-  </si>
-  <si>
-    <t>Total Stock, S&amp;P Index, Vanguard</t>
-  </si>
-  <si>
     <t>JEPQ</t>
   </si>
   <si>
-    <t>Income, Dividend,Nasdaq,ETF</t>
-  </si>
-  <si>
-    <t>Semiconductors, Chips,Nasdaq,ETF</t>
-  </si>
-  <si>
     <t>VXUS</t>
   </si>
   <si>
-    <t>Total Stock,International</t>
-  </si>
-  <si>
     <t>XLE</t>
   </si>
   <si>
@@ -101,9 +77,6 @@
     <t>JEPI</t>
   </si>
   <si>
-    <t>Income, Dividend,ETF</t>
-  </si>
-  <si>
     <t>FAS</t>
   </si>
   <si>
@@ -143,16 +116,58 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>ITB</t>
-  </si>
-  <si>
-    <t>US Home Construction</t>
-  </si>
-  <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>US Defense</t>
+    <t>VWO</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Equity Income</t>
+  </si>
+  <si>
+    <t>Dividend Equity</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Total Stock Market</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>Emerging Markets</t>
+  </si>
+  <si>
+    <t>International Developed Markets</t>
+  </si>
+  <si>
+    <t>VCR</t>
+  </si>
+  <si>
+    <t>VPU</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +674,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1016,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,30 +1058,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>106.71</v>
@@ -1075,16 +1093,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>53.56</v>
@@ -1096,16 +1114,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>79.73</v>
@@ -1117,16 +1135,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>86.67</v>
@@ -1138,16 +1156,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
@@ -1161,14 +1179,14 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>41.65</v>
@@ -1180,13 +1198,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1195,13 +1213,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1210,13 +1228,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1225,13 +1243,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
@@ -1240,13 +1258,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
@@ -1254,32 +1272,68 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3E085-98FE-44F1-A690-58C0E6F0F36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A59FA-5333-4780-8ABB-54147976A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41820" yWindow="0" windowWidth="28890" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Symbol</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>SOXL</t>
+  </si>
+  <si>
+    <t>Semiconductors 3X</t>
+  </si>
+  <si>
+    <t>Financials 3X</t>
+  </si>
+  <si>
+    <t>WANT</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary 3X</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -1333,6 +1348,28 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9A59FA-5333-4780-8ABB-54147976A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCF9FC-58D9-4DA3-BCFF-9FCD28EDF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41820" yWindow="0" windowWidth="28890" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1800" windowWidth="28890" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Symbol</t>
   </si>
@@ -116,9 +116,6 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>ITA</t>
-  </si>
-  <si>
     <t>VWO</t>
   </si>
   <si>
@@ -149,25 +146,10 @@
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>Aerospace &amp; Defense</t>
-  </si>
-  <si>
     <t>Emerging Markets</t>
   </si>
   <si>
     <t>International Developed Markets</t>
-  </si>
-  <si>
-    <t>VCR</t>
-  </si>
-  <si>
-    <t>VPU</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary</t>
   </si>
   <si>
     <t>SOXL</t>
@@ -1049,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1111,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1132,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1153,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1174,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1195,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1216,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1231,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1246,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1261,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1290,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -1301,7 +1283,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1312,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1320,7 +1302,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -1331,45 +1313,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCF9FC-58D9-4DA3-BCFF-9FCD28EDF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5982169-438C-4251-85A0-A086837B9531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1800" windowWidth="28890" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -44,9 +44,6 @@
     <t>XLF</t>
   </si>
   <si>
-    <t>XLK</t>
-  </si>
-  <si>
     <t>VNQ</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>SCHD</t>
   </si>
   <si>
-    <t>VTI</t>
-  </si>
-  <si>
     <t>JEPQ</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
   </si>
   <si>
     <t>Financials</t>
-  </si>
-  <si>
-    <t>Total Stock Market</t>
   </si>
   <si>
     <t>Semiconductors</t>
@@ -1031,10 +1022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,30 +1046,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>106.71</v>
@@ -1090,16 +1081,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>53.56</v>
@@ -1111,16 +1102,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>79.73</v>
@@ -1132,16 +1123,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>86.67</v>
@@ -1153,16 +1144,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
@@ -1177,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>41.65</v>
@@ -1195,136 +1186,106 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-    <sortCondition ref="C2:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
+    <sortCondition ref="C2:C9"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5982169-438C-4251-85A0-A086837B9531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE74DABE-77BC-4FD1-A096-A7EE0338E17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Symbol</t>
   </si>
@@ -110,9 +110,6 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>VWO</t>
-  </si>
-  <si>
     <t>VEA</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>Emerging Markets</t>
-  </si>
-  <si>
     <t>International Developed Markets</t>
   </si>
   <si>
@@ -152,10 +146,13 @@
     <t>Financials 3X</t>
   </si>
   <si>
-    <t>WANT</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary 3X</t>
+    <t>NAIL</t>
+  </si>
+  <si>
+    <t>HomeBuilders and Supply 3X</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1084,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1105,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1126,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1147,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1168,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1186,58 +1183,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>39.83</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41.56</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -1245,47 +1261,32 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
-    <sortCondition ref="C2:C9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+    <sortCondition ref="C2:C11"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE74DABE-77BC-4FD1-A096-A7EE0338E17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C5DBF0-4E08-4C9E-AF8B-6446F1BA8C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Symbol</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>TECL</t>
+  </si>
+  <si>
+    <t>3X</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1290,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
     <sortCondition ref="C2:C11"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C5DBF0-4E08-4C9E-AF8B-6446F1BA8C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61CBA0-71B4-43DE-9C36-6866C5FA7DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="2115" windowWidth="29520" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Symbol</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>3X</t>
+  </si>
+  <si>
+    <t>SPHD</t>
+  </si>
+  <si>
+    <t>High Dividend Low Volatity</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,6 +1307,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
     <sortCondition ref="C2:C11"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61CBA0-71B4-43DE-9C36-6866C5FA7DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C371092-A851-43B1-9D4B-9AC4AFD38E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2115" windowWidth="29520" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="2685" windowWidth="15540" windowHeight="18915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Symbol</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>FTEC</t>
-  </si>
-  <si>
-    <t>JEPI</t>
   </si>
   <si>
     <t>FAS</t>
@@ -1031,10 +1028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,16 +1052,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,13 +1069,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>106.71</v>
@@ -1093,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>53.56</v>
@@ -1114,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>79.73</v>
@@ -1135,13 +1132,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>86.67</v>
@@ -1156,13 +1153,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
@@ -1177,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>41.65</v>
@@ -1198,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>39.83</v>
@@ -1216,16 +1213,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>41.56</v>
@@ -1236,91 +1233,76 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-    <sortCondition ref="C2:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+    <sortCondition ref="C2:C10"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C371092-A851-43B1-9D4B-9AC4AFD38E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50D57AF-97D6-45AE-AEA7-29279654F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="2685" windowWidth="15540" windowHeight="18915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7425" yWindow="990" windowWidth="29055" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Symbol</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>High Dividend Low Volatity</t>
+  </si>
+  <si>
+    <t>KXI</t>
+  </si>
+  <si>
+    <t>CONSUMER</t>
+  </si>
+  <si>
+    <t>TMF</t>
+  </si>
+  <si>
+    <t>Bond 20yr 3X</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1312,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="C2:C10"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50D57AF-97D6-45AE-AEA7-29279654F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACB1061-A739-4F3F-99CA-C57F7C691828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="990" windowWidth="29055" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1545" windowWidth="25785" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Symbol</t>
   </si>
@@ -107,9 +107,6 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>VEA</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>International Developed Markets</t>
-  </si>
-  <si>
     <t>SOXL</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>3X</t>
   </si>
   <si>
-    <t>SPHD</t>
-  </si>
-  <si>
-    <t>High Dividend Low Volatity</t>
-  </si>
-  <si>
     <t>KXI</t>
   </si>
   <si>
@@ -174,6 +162,12 @@
   </si>
   <si>
     <t>Bond 20yr 3X</t>
+  </si>
+  <si>
+    <t>VGLT</t>
+  </si>
+  <si>
+    <t>BONDS</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1102,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1123,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1144,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1165,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1186,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1207,13 +1201,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>39.83</v>
@@ -1225,16 +1219,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
         <v>41.56</v>
@@ -1259,10 +1253,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1270,9 +1264,9 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1281,10 +1275,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1320,17 +1314,6 @@
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACB1061-A739-4F3F-99CA-C57F7C691828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1610F-556B-4BBC-84F2-6E1B089648D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1545" windowWidth="25785" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46170" yWindow="990" windowWidth="29055" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Symbol</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>BONDS</t>
+  </si>
+  <si>
+    <t>KBWY</t>
+  </si>
+  <si>
+    <t>REIT</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1323,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="C2:C10"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1610F-556B-4BBC-84F2-6E1B089648D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BE151-A185-489C-A047-E63F372C01D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46170" yWindow="990" windowWidth="29055" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Symbol</t>
   </si>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>3X</t>
-  </si>
-  <si>
-    <t>KXI</t>
-  </si>
-  <si>
-    <t>CONSUMER</t>
   </si>
   <si>
     <t>TMF</t>
@@ -1040,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,17 +1317,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="C2:C10"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BE151-A185-489C-A047-E63F372C01D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71DDCE-43DE-4BCD-AE21-C66FCA967278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41760" yWindow="975" windowWidth="31020" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,10 @@
     <t>BONDS</t>
   </si>
   <si>
-    <t>KBWY</t>
-  </si>
-  <si>
-    <t>REIT</t>
+    <t>VYM</t>
+  </si>
+  <si>
+    <t>High Dividend</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,6 +676,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,11 +1248,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45553</v>
+      </c>
+      <c r="E10" s="2">
+        <v>88.23</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71DDCE-43DE-4BCD-AE21-C66FCA967278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143A155-D06A-495B-9560-7D052D7000F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41760" yWindow="975" windowWidth="31020" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Symbol</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>High Dividend</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,6 +1332,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="C2:C10"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143A155-D06A-495B-9560-7D052D7000F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140504F5-8F4C-49DB-8CA2-9774010CEF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41760" yWindow="975" windowWidth="31020" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42825" yWindow="1260" windowWidth="31020" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Symbol</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>Utilities</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>ICLN</t>
+  </si>
+  <si>
+    <t>Clean Energy</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,10 +1280,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1279,10 +1291,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1290,10 +1302,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1301,10 +1313,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1312,10 +1324,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1323,10 +1335,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -1334,12 +1346,34 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140504F5-8F4C-49DB-8CA2-9774010CEF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5445D2-8EA7-48B2-A50C-AD53414CAFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42825" yWindow="1260" windowWidth="31020" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48405" yWindow="0" windowWidth="28395" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Symbol</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,9 +697,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,8 +1268,8 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
-        <v>45553</v>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>88.23</v>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5445D2-8EA7-48B2-A50C-AD53414CAFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714220D-65E6-449E-9178-90D3D1AFA92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48405" yWindow="0" windowWidth="28395" windowHeight="21585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39675" yWindow="1560" windowWidth="13020" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Symbol</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Financials 3X</t>
   </si>
   <si>
-    <t>NAIL</t>
-  </si>
-  <si>
-    <t>HomeBuilders and Supply 3X</t>
-  </si>
-  <si>
     <t>2024-07-25</t>
   </si>
   <si>
@@ -152,40 +146,22 @@
     <t>3X</t>
   </si>
   <si>
-    <t>TMF</t>
-  </si>
-  <si>
-    <t>Bond 20yr 3X</t>
-  </si>
-  <si>
     <t>VGLT</t>
   </si>
   <si>
     <t>BONDS</t>
   </si>
   <si>
-    <t>VYM</t>
-  </si>
-  <si>
-    <t>High Dividend</t>
-  </si>
-  <si>
     <t>XLU</t>
   </si>
   <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>IBB</t>
-  </si>
-  <si>
     <t>ICLN</t>
   </si>
   <si>
     <t>Clean Energy</t>
-  </si>
-  <si>
-    <t>Biotechnology</t>
   </si>
   <si>
     <t>2024-09-18</t>
@@ -1055,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>39.83</v>
@@ -1249,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>41.56</v>
@@ -1269,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2">
         <v>88.23</v>
@@ -1280,10 +1256,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1291,10 +1267,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1302,10 +1278,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1313,10 +1289,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1324,56 +1300,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714220D-65E6-449E-9178-90D3D1AFA92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A534F7CA-6F3D-4F3E-BE79-1B28F67393C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39675" yWindow="1560" windowWidth="13020" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="1485" windowWidth="13020" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Symbol</t>
   </si>
@@ -146,22 +146,10 @@
     <t>3X</t>
   </si>
   <si>
-    <t>VGLT</t>
-  </si>
-  <si>
-    <t>BONDS</t>
-  </si>
-  <si>
     <t>XLU</t>
   </si>
   <si>
     <t>Utilities</t>
-  </si>
-  <si>
-    <t>ICLN</t>
-  </si>
-  <si>
-    <t>Clean Energy</t>
   </si>
   <si>
     <t>2024-09-18</t>
@@ -1031,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>88.23</v>
@@ -1267,10 +1255,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1278,34 +1266,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A534F7CA-6F3D-4F3E-BE79-1B28F67393C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A8F2B-053C-492D-A273-C53202D30DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="1485" windowWidth="13020" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48915" yWindow="0" windowWidth="27885" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Symbol</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>DLN</t>
+  </si>
+  <si>
+    <t>Total Dividends</t>
+  </si>
+  <si>
+    <t>Large Cap Dividends</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1287,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="C2:C10"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A8F2B-053C-492D-A273-C53202D30DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFEBE31-3B10-4D24-8684-192CAC26DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48915" yWindow="0" windowWidth="27885" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41520" yWindow="2175" windowWidth="27915" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Symbol</t>
   </si>
@@ -138,18 +138,6 @@
   </si>
   <si>
     <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>TECL</t>
-  </si>
-  <si>
-    <t>3X</t>
-  </si>
-  <si>
-    <t>XLU</t>
-  </si>
-  <si>
-    <t>Utilities</t>
   </si>
   <si>
     <t>2024-09-18</t>
@@ -1031,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>88.23</v>
@@ -1256,10 +1244,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1267,10 +1255,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1278,34 +1266,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFEBE31-3B10-4D24-8684-192CAC26DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDDA62-B834-4D66-A2EC-E32A2EF0F448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41520" yWindow="2175" windowWidth="27915" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38580" yWindow="150" windowWidth="27390" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Symbol</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Large Cap Dividends</t>
+  </si>
+  <si>
+    <t>KBWY</t>
+  </si>
+  <si>
+    <t>REIT (smaller companies)</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1281,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="C2:C10"/>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDDA62-B834-4D66-A2EC-E32A2EF0F448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D522A44F-8FAB-4746-BC7B-C7BCE41ADC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="150" windowWidth="27390" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="2370" windowWidth="18375" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Symbol</t>
   </si>
@@ -143,22 +143,34 @@
     <t>2024-09-18</t>
   </si>
   <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>DLN</t>
-  </si>
-  <si>
-    <t>Total Dividends</t>
-  </si>
-  <si>
-    <t>Large Cap Dividends</t>
-  </si>
-  <si>
     <t>KBWY</t>
   </si>
   <si>
     <t>REIT (smaller companies)</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>XHB</t>
+  </si>
+  <si>
+    <t>Home Builders</t>
+  </si>
+  <si>
+    <t>JEPI</t>
+  </si>
+  <si>
+    <t>Equity Premium</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>Super Dividend</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,10 +1273,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1272,7 +1284,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -1289,6 +1301,28 @@
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D522A44F-8FAB-4746-BC7B-C7BCE41ADC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6473121-2DE6-4A2D-BEA9-8E556BE5E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="2370" windowWidth="18375" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="1440" windowWidth="20865" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Symbol</t>
   </si>
@@ -167,10 +167,13 @@
     <t>Equity Premium</t>
   </si>
   <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>Super Dividend</t>
+    <t>SCHB</t>
+  </si>
+  <si>
+    <t>Total Market</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,21 +1265,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20.57</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1284,10 +1296,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1295,10 +1307,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1306,10 +1318,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1317,10 +1329,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6473121-2DE6-4A2D-BEA9-8E556BE5E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C11819-EBE5-4B4B-980E-7921769DB3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="1440" windowWidth="20865" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="2475" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -68,9 +68,6 @@
     <t>FTEC</t>
   </si>
   <si>
-    <t>FAS</t>
-  </si>
-  <si>
     <t>HOLDING</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Semiconductors 3X</t>
   </si>
   <si>
-    <t>Financials 3X</t>
-  </si>
-  <si>
     <t>2024-07-25</t>
   </si>
   <si>
@@ -147,18 +141,6 @@
   </si>
   <si>
     <t>REIT (smaller companies)</t>
-  </si>
-  <si>
-    <t>XLU</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>XHB</t>
-  </si>
-  <si>
-    <t>Home Builders</t>
   </si>
   <si>
     <t>JEPI</t>
@@ -1040,10 +1022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,13 +1063,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>106.71</v>
@@ -1102,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>53.56</v>
@@ -1123,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>79.73</v>
@@ -1144,13 +1126,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>86.67</v>
@@ -1165,13 +1147,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
@@ -1186,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>41.65</v>
@@ -1207,13 +1189,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>39.83</v>
@@ -1225,16 +1207,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>41.56</v>
@@ -1251,10 +1233,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>88.23</v>
@@ -1265,16 +1247,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>20.57</v>
@@ -1285,57 +1267,24 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C11819-EBE5-4B4B-980E-7921769DB3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C3A05D-61AE-4BCB-89E5-B81D9BAF4BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="2475" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
+    <sheet name="backtest_group" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -1025,7 +1026,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1143,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1162,6 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1182,7 +1182,6 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1203,7 +1202,6 @@
       <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1225,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,10 +1286,165 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
-    <sortCondition ref="C2:C10"/>
-  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB15205-EC29-4A1F-92FA-F852B70D2C5E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>79.73</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>86.67</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>41.65</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>39.83</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88.23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C3A05D-61AE-4BCB-89E5-B81D9BAF4BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6810A-99EB-40F8-B433-34234D497DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="1260" windowWidth="28800" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="backtest_group" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -1026,7 +1025,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,162 +1288,4 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB15205-EC29-4A1F-92FA-F852B70D2C5E}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2">
-        <v>79.73</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>86.67</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2">
-        <v>41.65</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2">
-        <v>39.83</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2">
-        <v>88.23</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Project\Python\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6810A-99EB-40F8-B433-34234D497DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB28E1-AE2D-4E84-85EF-3892C7F1719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="1260" windowWidth="28800" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26055" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Symbol</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>NVDIA Stock</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1290,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
